--- a/account/design.1/機能一覧表 (1).xlsx
+++ b/account/design.1/機能一覧表 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emi07\Desktop\追加課題6\【実習】各種設計書（テンプレ）\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CF1BC15-B62C-4A0A-B1BC-38415706CA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F308E4C-9308-4C54-AC8B-21313685FCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">機能一覧表!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙 '!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcMode="manual" calcCompleted="0"/>
+  <calcPr calcId="191028" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
@@ -66,14 +66,7 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>生徒管理システム</t>
-    <rPh sb="0" eb="2">
-      <t>セイト</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+    <t>アカウント管理システム</t>
   </si>
   <si>
     <t>機能一覧表</t>
@@ -154,18 +147,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>岩岬</t>
-    <rPh sb="0" eb="2">
-      <t>イワサキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>渡辺</t>
-    <rPh sb="0" eb="2">
-      <t>ワタナベ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+    <t>山本</t>
   </si>
   <si>
     <t>　　　　　機能一覧表</t>
@@ -191,13 +173,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>アカウント機能システム</t>
-  </si>
-  <si>
     <t>D.I</t>
-  </si>
-  <si>
-    <t>山本</t>
   </si>
   <si>
     <t>サブシステム</t>
@@ -684,6 +660,9 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,9 +682,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1193,7 +1169,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
@@ -2194,7 +2172,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="46">
-        <v>38487</v>
+        <v>45247</v>
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
@@ -2224,7 +2202,7 @@
         <v>13</v>
       </c>
       <c r="AD26" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE26" s="5"/>
       <c r="AF26" s="22"/>
@@ -2831,7 +2809,7 @@
   <dimension ref="A1:FR12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -2848,42 +2826,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:174" ht="35.25" customHeight="1">
-      <c r="B1" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
+      <c r="B1" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
     </row>
     <row r="2" spans="1:174" ht="24" customHeight="1">
       <c r="A2" s="37"/>
       <c r="B2" s="42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2910,18 +2888,18 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD2" s="50"/>
+      <c r="AD2" s="51"/>
     </row>
     <row r="3" spans="1:174" ht="14.25" customHeight="1">
       <c r="A3" s="37"/>
       <c r="B3" s="36" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2947,54 +2925,54 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD3" s="52"/>
+      <c r="AA3" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD3" s="53"/>
     </row>
     <row r="4" spans="1:174" s="7" customFormat="1" ht="31.5" customHeight="1">
       <c r="A4" s="38"/>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="55"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
@@ -3145,20 +3123,20 @@
         <v>1</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="34"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="11"/>
       <c r="K5" s="34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -3166,7 +3144,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="R5" s="34"/>
       <c r="S5" s="34"/>
@@ -3187,20 +3165,20 @@
         <v>2</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
       <c r="J6" s="35"/>
       <c r="K6" s="34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
@@ -3208,7 +3186,7 @@
       <c r="O6" s="34"/>
       <c r="P6" s="35"/>
       <c r="Q6" s="32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R6" s="34"/>
       <c r="S6" s="34"/>
@@ -3229,20 +3207,20 @@
         <v>3</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
       <c r="G7" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
       <c r="J7" s="35"/>
       <c r="K7" s="34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
@@ -3250,7 +3228,7 @@
       <c r="O7" s="34"/>
       <c r="P7" s="35"/>
       <c r="Q7" s="32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
@@ -3276,13 +3254,13 @@
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="G8" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
       <c r="J8" s="35"/>
       <c r="K8" s="34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
@@ -3290,7 +3268,7 @@
       <c r="O8" s="34"/>
       <c r="P8" s="35"/>
       <c r="Q8" s="41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R8" s="33"/>
       <c r="S8" s="33"/>
@@ -3311,20 +3289,20 @@
         <v>5</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
       <c r="G9" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="35"/>
       <c r="K9" s="34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
@@ -3332,7 +3310,7 @@
       <c r="O9" s="34"/>
       <c r="P9" s="35"/>
       <c r="Q9" s="32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R9" s="33"/>
       <c r="S9" s="33"/>
@@ -3353,20 +3331,20 @@
         <v>6</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
       <c r="G10" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
       <c r="J10" s="35"/>
       <c r="K10" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
@@ -3374,7 +3352,7 @@
       <c r="O10" s="34"/>
       <c r="P10" s="35"/>
       <c r="Q10" s="32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R10" s="33"/>
       <c r="S10" s="33"/>
